--- a/sofaplayer/La_Liga/Rayo Vallecano_stats.xlsx
+++ b/sofaplayer/La_Liga/Rayo Vallecano_stats.xlsx
@@ -7434,317 +7434,317 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Luiz Felipe</t>
+          <t>Florian Lejeune</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>850035</v>
+        <v>88528</v>
       </c>
       <c r="E20" t="n">
-        <v>6.55</v>
+        <v>6.85</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
+        <v>22</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.0585</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>28</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.25057051</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1628</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1176</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>88.222055513878</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1333</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>808</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>368</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>118</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>92</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>45.320197044335</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>102</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>122</v>
+      </c>
+      <c r="AU20" t="n">
         <v>5</v>
       </c>
-      <c r="H20" t="n">
-        <v>311</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.3808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="AV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>71.428571428571</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>91</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>53.216374269006</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>49</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>48.514851485149</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>60</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>182</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>34</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
         <v>3</v>
       </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.00991616</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>207</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>156</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>91.228070175439</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>171</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>134</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>30</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="BR20" t="n">
         <v>22</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>157</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>16</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>88</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>26</v>
+      </c>
+      <c r="CK20" t="n">
         <v>4</v>
       </c>
-      <c r="AK20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>46.153846153846</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>9</v>
+      </c>
+      <c r="CS20" t="n">
         <v>7</v>
       </c>
-      <c r="AS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>52.941176470588</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE20" t="n">
+      <c r="CT20" t="n">
         <v>4</v>
       </c>
-      <c r="BF20" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BG20" t="n">
+      <c r="CU20" t="n">
+        <v>80</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>28</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>203</v>
+      </c>
+      <c r="DA20" t="n">
         <v>20</v>
       </c>
-      <c r="BH20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>8</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>15</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>3</v>
-      </c>
       <c r="DB20" t="n">
-        <v>60</v>
+        <v>51.282051282051</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,19 +7756,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>137</v>
+        <v>856</v>
       </c>
       <c r="DG20" t="n">
-        <v>34</v>
+        <v>477</v>
       </c>
       <c r="DH20" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="DI20" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2133109</v>
+        <v>2133098</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7790,341 +7790,341 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Florian Lejeune</t>
+          <t>Luiz Felipe</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>88528</v>
+        <v>850035</v>
       </c>
       <c r="E21" t="n">
-        <v>6.85</v>
+        <v>6.55</v>
       </c>
       <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>311</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3808</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.00991616</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>207</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>156</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>91.228070175439</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>171</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>134</v>
+      </c>
+      <c r="AI21" t="n">
         <v>22</v>
       </c>
-      <c r="G21" t="n">
-        <v>22</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.0585</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>28</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="AJ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
         <v>7</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.25057051</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1628</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AS21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
         <v>9</v>
       </c>
-      <c r="AE21" t="n">
-        <v>1176</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>88.222055513878</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1333</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>808</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>368</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>118</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>92</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>45.320197044335</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>39</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>102</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="BB21" t="n">
+        <v>52.941176470588</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
         <v>15</v>
       </c>
-      <c r="AT21" t="n">
-        <v>122</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>71.428571428571</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>91</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>53.216374269006</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>49</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>48.514851485149</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>42</v>
-      </c>
-      <c r="BF21" t="n">
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB21" t="n">
         <v>60</v>
       </c>
-      <c r="BG21" t="n">
-        <v>182</v>
-      </c>
-      <c r="BH21" t="n">
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>137</v>
+      </c>
+      <c r="DG21" t="n">
         <v>34</v>
       </c>
-      <c r="BI21" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>30</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>150.7</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>22</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>157</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>16</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>9</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>12</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>16</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>88</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>40</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>26</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>9</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>80</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>28</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>203</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>20</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>51.282051282051</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>856</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>477</v>
-      </c>
       <c r="DH21" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="DI21" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2133098</v>
+        <v>2133109</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>

--- a/sofaplayer/La_Liga/Rayo Vallecano_stats.xlsx
+++ b/sofaplayer/La_Liga/Rayo Vallecano_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL26"/>
+  <dimension ref="A1:DL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,16 +2103,16 @@
         <v>932764</v>
       </c>
       <c r="E5" t="n">
-        <v>6.55</v>
+        <v>6.5428571428571</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02145935</v>
+        <v>0.02397949</v>
       </c>
       <c r="AB5" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2181,52 +2181,52 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>77.777777777778</v>
+        <v>77.41935483871001</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AH5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
         <v>3</v>
       </c>
-      <c r="AI5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2</v>
-      </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>3</v>
@@ -2247,32 +2247,32 @@
         <v>100</v>
       </c>
       <c r="BA5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>64.705882352941</v>
+        <v>56.521739130435</v>
       </c>
       <c r="BC5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD5" t="n">
-        <v>55.555555555556</v>
+        <v>50</v>
       </c>
       <c r="BE5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF5" t="n">
-        <v>75</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BG5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="n">
         <v>3</v>
       </c>
-      <c r="BI5" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ5" t="n">
         <v>1</v>
       </c>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>39.3</v>
+        <v>45.8</v>
       </c>
       <c r="BR5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CV5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DG5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,37 +2459,37 @@
         <v>1089108</v>
       </c>
       <c r="E6" t="n">
-        <v>6.5727272727273</v>
+        <v>6.6416666666667</v>
       </c>
       <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>387</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.0242</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>11</v>
       </c>
-      <c r="G6" t="n">
+      <c r="N6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>313</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8986</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>10</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2525,64 +2525,64 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.41209464</v>
+        <v>0.49305174</v>
       </c>
       <c r="AB6" t="n">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="n">
-        <v>88</v>
+        <v>85.833333333333</v>
       </c>
       <c r="AG6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>30.769230769231</v>
+        <v>26.666666666667</v>
       </c>
       <c r="AO6" t="n">
         <v>1</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>3</v>
@@ -2597,37 +2597,37 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>14.285714285714</v>
+        <v>27.777777777778</v>
       </c>
       <c r="BA6" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="BB6" t="n">
-        <v>45.714285714286</v>
+        <v>49.382716049383</v>
       </c>
       <c r="BC6" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="BD6" t="n">
-        <v>46.969696969697</v>
+        <v>51.315789473684</v>
       </c>
       <c r="BE6" t="n">
         <v>1</v>
       </c>
       <c r="BF6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BG6" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="BH6" t="n">
         <v>14</v>
       </c>
       <c r="BI6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>72.3</v>
+        <v>79.7</v>
       </c>
       <c r="BR6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA6" t="n">
         <v>6</v>
       </c>
       <c r="CB6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC6" t="n">
         <v>5</v>
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CT6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CU6" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CV6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DA6" t="n">
         <v>10</v>
       </c>
       <c r="DB6" t="n">
-        <v>66.666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="DG6" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>899982</v>
       </c>
       <c r="E8" t="n">
-        <v>6.6666666666667</v>
+        <v>6.6772727272727</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>1589</v>
+        <v>1653</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.0229</v>
+        <v>4.2956</v>
       </c>
       <c r="L8" t="n">
-        <v>794.5</v>
+        <v>826.5</v>
       </c>
       <c r="M8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>5.8823529411765</v>
+        <v>5.5555555555556</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
@@ -3237,46 +3237,46 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.76388782</v>
+        <v>2.82487992</v>
       </c>
       <c r="AB8" t="n">
-        <v>996</v>
+        <v>1031</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="AF8" t="n">
-        <v>82.343499197432</v>
+        <v>82.48062015503901</v>
       </c>
       <c r="AG8" t="n">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="AH8" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AI8" t="n">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="AJ8" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AK8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>60.655737704918</v>
+        <v>61.290322580645</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN8" t="n">
-        <v>25.333333333333</v>
+        <v>26.315789473684</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -3285,19 +3285,19 @@
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AS8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT8" t="n">
         <v>15</v>
       </c>
-      <c r="AT8" t="n">
-        <v>13</v>
-      </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>1</v>
@@ -3309,37 +3309,37 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51.351351351351</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BA8" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BB8" t="n">
-        <v>43.979057591623</v>
+        <v>44.162436548223</v>
       </c>
       <c r="BC8" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BD8" t="n">
-        <v>44.871794871795</v>
+        <v>44.72049689441</v>
       </c>
       <c r="BE8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BF8" t="n">
-        <v>40</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BG8" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="BH8" t="n">
         <v>27</v>
       </c>
       <c r="BI8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BJ8" t="n">
         <v>2</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>140</v>
+        <v>146.9</v>
       </c>
       <c r="BR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS8" t="n">
         <v>5</v>
       </c>
       <c r="BT8" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3387,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CA8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CB8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CC8" t="n">
         <v>51</v>
@@ -3444,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CS8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CT8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CU8" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="CV8" t="n">
         <v>21</v>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="CZ8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="DA8" t="n">
         <v>8</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="DG8" t="n">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>900003</v>
       </c>
       <c r="E9" t="n">
-        <v>7.085</v>
+        <v>7.0238095238095</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>1457</v>
+        <v>1521</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -3548,7 +3548,7 @@
         <v>5.454</v>
       </c>
       <c r="L9" t="n">
-        <v>208.14285714286</v>
+        <v>217.28571428571</v>
       </c>
       <c r="M9" t="n">
         <v>32</v>
@@ -3557,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
         <v>21.875</v>
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.95821808</v>
+        <v>1.960931</v>
       </c>
       <c r="AB9" t="n">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
@@ -3605,22 +3605,22 @@
         <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AF9" t="n">
-        <v>76.829268292683</v>
+        <v>77.55905511811</v>
       </c>
       <c r="AG9" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AH9" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AJ9" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="n">
         <v>4</v>
@@ -3644,10 +3644,10 @@
         <v>12</v>
       </c>
       <c r="AR9" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AS9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
@@ -3674,13 +3674,13 @@
         <v>69</v>
       </c>
       <c r="BB9" t="n">
-        <v>42.857142857143</v>
+        <v>41.566265060241</v>
       </c>
       <c r="BC9" t="n">
         <v>57</v>
       </c>
       <c r="BD9" t="n">
-        <v>44.88188976378</v>
+        <v>43.181818181818</v>
       </c>
       <c r="BE9" t="n">
         <v>12</v>
@@ -3689,16 +3689,16 @@
         <v>35.294117647059</v>
       </c>
       <c r="BG9" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="BH9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BI9" t="n">
         <v>23</v>
       </c>
       <c r="BJ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK9" t="n">
         <v>2</v>
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>141.7</v>
+        <v>147.5</v>
       </c>
       <c r="BR9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS9" t="n">
         <v>8</v>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="CB9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CC9" t="n">
         <v>6</v>
@@ -3809,7 +3809,7 @@
         <v>22</v>
       </c>
       <c r="CU9" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="CV9" t="n">
         <v>22</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="DG9" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>345111</v>
       </c>
       <c r="E10" t="n">
-        <v>6.6636363636364</v>
+        <v>6.6782608695652</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
         <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>1582</v>
+        <v>1608</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>5.3637</v>
       </c>
       <c r="L10" t="n">
-        <v>527.33333333333</v>
+        <v>536</v>
       </c>
       <c r="M10" t="n">
         <v>33</v>
@@ -3946,31 +3946,31 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.54315304</v>
+        <v>3.90146504</v>
       </c>
       <c r="AB10" t="n">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AF10" t="n">
-        <v>67.336683417085</v>
+        <v>67.326732673267</v>
       </c>
       <c r="AG10" t="n">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AH10" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AI10" t="n">
         <v>184</v>
@@ -3982,13 +3982,13 @@
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>35.555555555556</v>
+        <v>34.782608695652</v>
       </c>
       <c r="AM10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.111111111111</v>
+        <v>12.307692307692</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -4000,13 +4000,13 @@
         <v>9</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -4027,16 +4027,16 @@
         <v>22.222222222222</v>
       </c>
       <c r="BA10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BB10" t="n">
-        <v>37.623762376238</v>
+        <v>37.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD10" t="n">
-        <v>42.647058823529</v>
+        <v>42.253521126761</v>
       </c>
       <c r="BE10" t="n">
         <v>9</v>
@@ -4045,19 +4045,19 @@
         <v>27.272727272727</v>
       </c>
       <c r="BG10" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="BH10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ10" t="n">
         <v>11</v>
       </c>
       <c r="BK10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>146.6</v>
+        <v>153.6</v>
       </c>
       <c r="BR10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BT10" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CS10" t="n">
         <v>9</v>
       </c>
       <c r="CT10" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="CU10" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="CV10" t="n">
         <v>24</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DA10" t="n">
         <v>12</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="DG10" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>900669</v>
       </c>
       <c r="E11" t="n">
-        <v>6.5263157894737</v>
+        <v>6.53</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>1120</v>
+        <v>1146</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7810816</v>
+        <v>0.78200442</v>
       </c>
       <c r="AB11" t="n">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
@@ -4317,22 +4317,22 @@
         <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AF11" t="n">
-        <v>87.02127659574499</v>
+        <v>86.974789915966</v>
       </c>
       <c r="AG11" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AH11" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AI11" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AJ11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
@@ -4350,13 +4350,13 @@
         <v>2</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AS11" t="n">
         <v>18</v>
@@ -4380,19 +4380,19 @@
         <v>6</v>
       </c>
       <c r="AZ11" t="n">
-        <v>42.857142857143</v>
+        <v>40</v>
       </c>
       <c r="BA11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BB11" t="n">
-        <v>47.115384615385</v>
+        <v>46.728971962617</v>
       </c>
       <c r="BC11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD11" t="n">
-        <v>43.90243902439</v>
+        <v>43.529411764706</v>
       </c>
       <c r="BE11" t="n">
         <v>13</v>
@@ -4401,7 +4401,7 @@
         <v>59.090909090909</v>
       </c>
       <c r="BG11" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="BH11" t="n">
         <v>9</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>124</v>
+        <v>130.6</v>
       </c>
       <c r="BR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>21</v>
       </c>
       <c r="CB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC11" t="n">
         <v>11</v>
@@ -4515,13 +4515,13 @@
         <v>17</v>
       </c>
       <c r="CS11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT11" t="n">
         <v>29</v>
       </c>
       <c r="CU11" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CV11" t="n">
         <v>9</v>
@@ -4539,10 +4539,10 @@
         <v>24</v>
       </c>
       <c r="DA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB11" t="n">
-        <v>58.333333333333</v>
+        <v>60</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="DG11" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>588566</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7933333333333</v>
+        <v>6.78125</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.03717589</v>
+        <v>1.03748868</v>
       </c>
       <c r="AB13" t="n">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
@@ -5029,28 +5029,28 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF13" t="n">
-        <v>88.10198300283299</v>
+        <v>87.746478873239</v>
       </c>
       <c r="AG13" t="n">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="AH13" t="n">
         <v>330</v>
       </c>
       <c r="AI13" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AJ13" t="n">
         <v>134</v>
       </c>
       <c r="AK13" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AL13" t="n">
-        <v>57.317073170732</v>
+        <v>55.813953488372</v>
       </c>
       <c r="AM13" t="n">
         <v>9</v>
@@ -5062,7 +5062,7 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ13" t="n">
         <v>3</v>
@@ -5074,7 +5074,7 @@
         <v>12</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
         <v>6</v>
@@ -5095,16 +5095,16 @@
         <v>77.777777777778</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BB13" t="n">
-        <v>46.067415730337</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BC13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BD13" t="n">
-        <v>44.155844155844</v>
+        <v>44.871794871795</v>
       </c>
       <c r="BE13" t="n">
         <v>7</v>
@@ -5113,7 +5113,7 @@
         <v>58.333333333333</v>
       </c>
       <c r="BG13" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BH13" t="n">
         <v>23</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>101.9</v>
+        <v>108.5</v>
       </c>
       <c r="BR13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS13" t="n">
         <v>3</v>
       </c>
       <c r="BT13" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="DA13" t="n">
         <v>11</v>
       </c>
       <c r="DB13" t="n">
-        <v>57.894736842105</v>
+        <v>55</v>
       </c>
       <c r="DC13" t="n">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>347</v>
       </c>
       <c r="DG13" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,40 +5307,40 @@
         <v>966637</v>
       </c>
       <c r="E14" t="n">
-        <v>6.5611111111111</v>
+        <v>6.6210526315789</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>714</v>
+        <v>778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>1.1078</v>
+        <v>1.5004</v>
       </c>
       <c r="L14" t="n">
-        <v>714</v>
+        <v>389</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
         <v>1</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.1099182</v>
+        <v>1.11479956</v>
       </c>
       <c r="AB14" t="n">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="AC14" t="n">
         <v>3</v>
@@ -5385,22 +5385,22 @@
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="n">
-        <v>81.958762886598</v>
+        <v>81.951219512195</v>
       </c>
       <c r="AG14" t="n">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AH14" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AI14" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -5412,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>23.333333333333</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -5421,16 +5421,16 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR14" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5445,22 +5445,22 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>57.142857142857</v>
+        <v>60</v>
       </c>
       <c r="BA14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB14" t="n">
-        <v>37.313432835821</v>
+        <v>36.986301369863</v>
       </c>
       <c r="BC14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD14" t="n">
-        <v>44.444444444444</v>
+        <v>43.333333333333</v>
       </c>
       <c r="BE14" t="n">
         <v>1</v>
@@ -5469,16 +5469,16 @@
         <v>7.6923076923077</v>
       </c>
       <c r="BG14" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="BH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI14" t="n">
         <v>8</v>
       </c>
-      <c r="BI14" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BK14" t="n">
         <v>2</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>118.1</v>
+        <v>125.8</v>
       </c>
       <c r="BR14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5526,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CC14" t="n">
         <v>6</v>
@@ -5583,13 +5583,13 @@
         <v>11</v>
       </c>
       <c r="CS14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CU14" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CV14" t="n">
         <v>12</v>
@@ -5622,16 +5622,16 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="DG14" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ14" t="n">
         <v>2175981</v>
@@ -5663,40 +5663,40 @@
         <v>900008</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8263157894737</v>
+        <v>6.86</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>1215</v>
+        <v>1305</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3412</v>
+        <v>0.952</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.89684915</v>
+        <v>0.9083166499999999</v>
       </c>
       <c r="AB15" t="n">
-        <v>713</v>
+        <v>765</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -5741,28 +5741,28 @@
         <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="AF15" t="n">
-        <v>88.178294573643</v>
+        <v>88.405797101449</v>
       </c>
       <c r="AG15" t="n">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="AH15" t="n">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AI15" t="n">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="AJ15" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
         <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>41.935483870968</v>
+        <v>40.625</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -5771,25 +5771,25 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AS15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AU15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -5807,25 +5807,25 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="BB15" t="n">
-        <v>50.354609929078</v>
+        <v>50</v>
       </c>
       <c r="BC15" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BD15" t="n">
-        <v>54.455445544554</v>
+        <v>54.285714285714</v>
       </c>
       <c r="BE15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BF15" t="n">
         <v>40</v>
       </c>
       <c r="BG15" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="BH15" t="n">
         <v>18</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO15" t="n">
         <v>10</v>
@@ -5855,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>129.7</v>
+        <v>137.2</v>
       </c>
       <c r="BR15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BU15" t="n">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CA15" t="n">
         <v>4</v>
@@ -5945,10 +5945,10 @@
         <v>2</v>
       </c>
       <c r="CU15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="CV15" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DA15" t="n">
         <v>26</v>
       </c>
       <c r="DB15" t="n">
-        <v>60.46511627907</v>
+        <v>57.777777777778</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,16 +5978,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="DG15" t="n">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DJ15" t="n">
         <v>2133085</v>
@@ -6019,16 +6019,16 @@
         <v>326471</v>
       </c>
       <c r="E16" t="n">
-        <v>6.5428571428571</v>
+        <v>6.5666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6037,16 +6037,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.215</v>
+        <v>0.2575</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -6085,64 +6085,64 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.43373597</v>
+        <v>0.61761797</v>
       </c>
       <c r="AB16" t="n">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="n">
-        <v>84.5</v>
+        <v>83.842794759825</v>
       </c>
       <c r="AG16" t="n">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="AH16" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AJ16" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
         <v>10</v>
       </c>
       <c r="AL16" t="n">
-        <v>45.454545454545</v>
+        <v>41.666666666667</v>
       </c>
       <c r="AM16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>33.333333333333</v>
+        <v>35</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
         <v>3</v>
@@ -6157,22 +6157,22 @@
         <v>1</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>80</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
-        <v>41.176470588235</v>
+        <v>41.071428571429</v>
       </c>
       <c r="BC16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
-        <v>40.47619047619</v>
+        <v>40.425531914894</v>
       </c>
       <c r="BE16" t="n">
         <v>4</v>
@@ -6181,10 +6181,10 @@
         <v>44.444444444444</v>
       </c>
       <c r="BG16" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="BH16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI16" t="n">
         <v>3</v>
@@ -6211,16 +6211,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>91.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="BR16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA16" t="n">
         <v>7</v>
@@ -6247,10 +6247,10 @@
         <v>3</v>
       </c>
       <c r="CC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD16" t="n">
         <v>5</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>3</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6292,16 +6292,16 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
+        <v>9</v>
+      </c>
+      <c r="CS16" t="n">
         <v>7</v>
       </c>
-      <c r="CS16" t="n">
-        <v>5</v>
-      </c>
       <c r="CT16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CU16" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CV16" t="n">
         <v>5</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="DA16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB16" t="n">
-        <v>70</v>
+        <v>72.727272727273</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="DG16" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ16" t="n">
         <v>2133083</v>
@@ -6368,265 +6368,267 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Samu Becerra</t>
+          <t>Andrei Rațiu</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2198232</v>
+        <v>965031</v>
       </c>
       <c r="E17" t="n">
-        <v>6.7</v>
+        <v>6.785</v>
       </c>
       <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1748</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.845</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.56789959</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1428</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>686</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>82.45192307692299</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>832</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>313</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>373</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>204</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>31.666666666667</v>
+      </c>
+      <c r="AM17" t="n">
         <v>11</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.07388976999999999</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AN17" t="n">
+        <v>18.333333333333</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>93</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>53</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>33</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>47.142857142857</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>47.417840375587</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>89</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>49.720670391061</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>35.294117647059</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>321</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>20</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>20</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>146</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
         <v>11</v>
       </c>
-      <c r="AF17" t="n">
-        <v>91.666666666667</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA17" t="n">
         <v>12</v>
       </c>
-      <c r="AH17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
+      <c r="CB17" t="n">
+        <v>28</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>35</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="CK17" t="n">
         <v>3</v>
       </c>
-      <c r="BH17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>0</v>
-      </c>
       <c r="CL17" t="n">
         <v>0</v>
       </c>
@@ -6646,19 +6648,19 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="CS17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CT17" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="CU17" t="n">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="CV17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="DA17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="DB17" t="n">
-        <v>0</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,19 +6690,19 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>5</v>
+        <v>349</v>
       </c>
       <c r="DG17" t="n">
-        <v>7</v>
+        <v>483</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2268044</v>
+        <v>2133148</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6722,221 +6724,221 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Andrei Rațiu</t>
+          <t>Nobel Mendy</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>965031</v>
+        <v>1458073</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7157894736842</v>
+        <v>6.7857142857143</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>1658</v>
+        <v>1129</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>1.8243</v>
+        <v>1.5703</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>564.5</v>
       </c>
       <c r="M18" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.05396761</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>794</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>520</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>86.95652173913</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>598</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>412</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>108</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>43.421052631579</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="n">
         <v>3</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1.88898859</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1357</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AZ18" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>48.684210526316</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>46.938775510204</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>51.851851851852</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>93</v>
+      </c>
+      <c r="BH18" t="n">
         <v>20</v>
       </c>
-      <c r="AE18" t="n">
-        <v>654</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>82.784810126582</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>790</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>297</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>357</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>193</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>32.727272727273</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>17.241379310345</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AQ18" t="n">
+      <c r="BI18" t="n">
         <v>6</v>
       </c>
-      <c r="AR18" t="n">
-        <v>84</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>33</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>47.142857142857</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>99</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>47.368421052632</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>88</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>304</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>13</v>
-      </c>
       <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
         <v>4</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BO18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>95</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>78</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV18" t="n">
         <v>6</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>20</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>19</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>136</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>11</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6951,112 +6953,112 @@
         <v>8</v>
       </c>
       <c r="CA18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>46</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>24</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>39</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>13</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>76</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>438</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>160</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>47</v>
+      </c>
+      <c r="DI18" t="n">
         <v>11</v>
       </c>
-      <c r="CB18" t="n">
-        <v>27</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>35</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>70</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>58</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>110</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>22</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>55</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>24</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>330</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>460</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>2</v>
-      </c>
       <c r="DJ18" t="n">
-        <v>2133148</v>
+        <v>2378838</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7078,113 +7080,113 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nobel Mendy</t>
+          <t>Florian Lejeune</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1458073</v>
+        <v>88528</v>
       </c>
       <c r="E19" t="n">
-        <v>6.6692307692308</v>
+        <v>6.8913043478261</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H19" t="n">
-        <v>1039</v>
+        <v>2061</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.4267</v>
+        <v>1.1425</v>
       </c>
       <c r="L19" t="n">
-        <v>1039</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>30</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.25404959</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1707</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
         <v>9</v>
       </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>11.111111111111</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.04842274</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>738</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
       <c r="AE19" t="n">
-        <v>483</v>
+        <v>1228</v>
       </c>
       <c r="AF19" t="n">
-        <v>86.714542190305</v>
+        <v>88.155061019383</v>
       </c>
       <c r="AG19" t="n">
-        <v>557</v>
+        <v>1393</v>
       </c>
       <c r="AH19" t="n">
-        <v>385</v>
+        <v>853</v>
       </c>
       <c r="AI19" t="n">
-        <v>98</v>
+        <v>375</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="AL19" t="n">
-        <v>40.845070422535</v>
+        <v>44.549763033175</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -7193,64 +7195,64 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AP19" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="AS19" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AU19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>75</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BA19" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="BB19" t="n">
-        <v>47.945205479452</v>
+        <v>53.932584269663</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>45.652173913043</v>
+        <v>48.571428571429</v>
       </c>
       <c r="BE19" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="BF19" t="n">
-        <v>51.851851851852</v>
+        <v>61.643835616438</v>
       </c>
       <c r="BG19" t="n">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="BH19" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="BI19" t="n">
         <v>6</v>
@@ -7262,37 +7264,37 @@
         <v>3</v>
       </c>
       <c r="BL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" t="n">
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BO19" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>86.7</v>
+        <v>158.5</v>
       </c>
       <c r="BR19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BS19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="BU19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
@@ -7301,76 +7303,76 @@
         <v>0</v>
       </c>
       <c r="BY19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>18</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>90</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>41</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>9</v>
+      </c>
+      <c r="CS19" t="n">
         <v>7</v>
       </c>
-      <c r="CA19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>44</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>22</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>14</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS19" t="n">
+      <c r="CT19" t="n">
         <v>4</v>
       </c>
-      <c r="CT19" t="n">
-        <v>5</v>
-      </c>
       <c r="CU19" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="CV19" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7382,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="DA19" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="DB19" t="n">
-        <v>33.333333333333</v>
+        <v>50</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,19 +7402,19 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>411</v>
+        <v>902</v>
       </c>
       <c r="DG19" t="n">
-        <v>146</v>
+        <v>491</v>
       </c>
       <c r="DH19" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="DI19" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2378838</v>
+        <v>2133098</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7434,341 +7436,341 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Florian Lejeune</t>
+          <t>Luiz Felipe</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>88528</v>
+        <v>850035</v>
       </c>
       <c r="E20" t="n">
-        <v>6.85</v>
+        <v>6.55</v>
       </c>
       <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>311</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3808</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.00991616</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>207</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>156</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>91.228070175439</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>171</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>134</v>
+      </c>
+      <c r="AI20" t="n">
         <v>22</v>
       </c>
-      <c r="G20" t="n">
-        <v>22</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.0585</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>28</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="AJ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
         <v>7</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.25057051</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1628</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
         <v>9</v>
       </c>
-      <c r="AE20" t="n">
-        <v>1176</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>88.222055513878</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1333</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>808</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>368</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>118</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>92</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>45.320197044335</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>39</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>102</v>
-      </c>
-      <c r="AS20" t="n">
+      <c r="BB20" t="n">
+        <v>52.941176470588</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
         <v>15</v>
       </c>
-      <c r="AT20" t="n">
-        <v>122</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>71.428571428571</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>91</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>53.216374269006</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>49</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>48.514851485149</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>42</v>
-      </c>
-      <c r="BF20" t="n">
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB20" t="n">
         <v>60</v>
       </c>
-      <c r="BG20" t="n">
-        <v>182</v>
-      </c>
-      <c r="BH20" t="n">
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>137</v>
+      </c>
+      <c r="DG20" t="n">
         <v>34</v>
       </c>
-      <c r="BI20" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>30</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>150.7</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>22</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>157</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>16</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>9</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>16</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>88</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>40</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>26</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>9</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>80</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>28</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>203</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>20</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>51.282051282051</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>856</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>477</v>
-      </c>
       <c r="DH20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="DI20" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2133098</v>
+        <v>2133109</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7790,23 +7792,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Luiz Felipe</t>
+          <t>Iván Balliu</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>850035</v>
+        <v>152446</v>
       </c>
       <c r="E21" t="n">
-        <v>6.55</v>
+        <v>6.6777777777778</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7815,97 +7817,97 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3808</v>
+        <v>0.3289</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.1870331</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>211</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>122</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>84.722222222222</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>144</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>53</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.00991616</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>207</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>156</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>91.228070175439</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>171</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>134</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>46.153846153846</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>5</v>
       </c>
       <c r="AP21" t="n">
         <v>5</v>
@@ -7914,16 +7916,16 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AU21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
         <v>0</v>
@@ -7935,43 +7937,43 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BA21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BB21" t="n">
-        <v>52.941176470588</v>
+        <v>48</v>
       </c>
       <c r="BC21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD21" t="n">
-        <v>50</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BE21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF21" t="n">
-        <v>57.142857142857</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG21" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="BH21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
       </c>
       <c r="BK21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL21" t="n">
         <v>0</v>
@@ -7989,22 +7991,22 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>52.4</v>
+        <v>60.1</v>
       </c>
       <c r="BR21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8016,74 +8018,74 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
         <v>3</v>
       </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
+      <c r="CK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>7</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>13</v>
+      </c>
+      <c r="CV21" t="n">
         <v>4</v>
       </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>3</v>
-      </c>
       <c r="CW21" t="n">
         <v>0</v>
       </c>
@@ -8094,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DA21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DB21" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8112,19 +8114,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="DG21" t="n">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="DH21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="DI21" t="n">
         <v>1</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2133109</v>
+        <v>2293631</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8146,47 +8148,47 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Iván Balliu</t>
+          <t>Alfonso Espino</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>152446</v>
+        <v>542634</v>
       </c>
       <c r="E22" t="n">
-        <v>6.6777777777778</v>
+        <v>6.6466666666667</v>
       </c>
       <c r="F22" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>651</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="L22" t="n">
+        <v>651</v>
+      </c>
+      <c r="M22" t="n">
         <v>9</v>
       </c>
-      <c r="G22" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>265</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.3289</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -8198,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -8207,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -8219,244 +8221,244 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.1870331</v>
+        <v>1.17488288</v>
       </c>
       <c r="AB22" t="n">
-        <v>211</v>
+        <v>462</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="n">
-        <v>84.722222222222</v>
+        <v>71.89781021897799</v>
       </c>
       <c r="AG22" t="n">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="AH22" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="n">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>58.333333333333</v>
+        <v>46.666666666667</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>17.391304347826</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
       </c>
       <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>44.444444444444</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>48.421052631579</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>37</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>46.835443037975</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>133</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>77</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>23</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
         <v>5</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA22" t="n">
+      <c r="CS22" t="n">
+        <v>9</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>23</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>49</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>7</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>30</v>
+      </c>
+      <c r="DA22" t="n">
         <v>12</v>
       </c>
-      <c r="BB22" t="n">
-        <v>48</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>52.631578947368</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>36</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>9</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>22</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>7</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>13</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>5</v>
-      </c>
       <c r="DB22" t="n">
-        <v>100</v>
+        <v>63.157894736842</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="DG22" t="n">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
@@ -8480,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2293631</v>
+        <v>2133087</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8502,47 +8504,47 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Alfonso Espino</t>
+          <t>Josep Chavarría</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>542634</v>
+        <v>1010421</v>
       </c>
       <c r="E23" t="n">
-        <v>6.5857142857143</v>
+        <v>6.7954545454545</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>561</v>
+        <v>1912</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1.1334</v>
+        <v>0.4535</v>
       </c>
       <c r="L23" t="n">
-        <v>561</v>
+        <v>1912</v>
       </c>
       <c r="M23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>12.5</v>
+        <v>7.1428571428571</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -8554,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -8572,250 +8574,250 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.16698475</v>
+        <v>2.05176577</v>
       </c>
       <c r="AB23" t="n">
-        <v>413</v>
+        <v>1519</v>
       </c>
       <c r="AC23" t="n">
         <v>3</v>
       </c>
       <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>796</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>84.951974386339</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>937</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>421</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>375</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>185</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>39.60396039604</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>17.647058823529</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>58</v>
+      </c>
+      <c r="AU23" t="n">
         <v>5</v>
       </c>
-      <c r="AE23" t="n">
-        <v>181</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>72.111553784861</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>41.379310344828</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>54.644808743169</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>57.042253521127</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>46.341463414634</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>292</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>26</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>29</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>29</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>141</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>42</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>24</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>25</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>16</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>29</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>68</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>83</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>22</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
         <v>101</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>57</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>48.148148148148</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>17.391304347826</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>33</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>44.444444444444</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>40</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>47.058823529412</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>31</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>44.285714285714</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>60</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>120</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>13</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>70</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>19</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>11</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>5</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>9</v>
-      </c>
-      <c r="CT23" t="n">
+      <c r="DA23" t="n">
         <v>23</v>
       </c>
-      <c r="CU23" t="n">
-        <v>45</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>6</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>27</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>11</v>
-      </c>
       <c r="DB23" t="n">
-        <v>68.75</v>
+        <v>57.5</v>
       </c>
       <c r="DC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD23" t="n">
         <v>0</v>
@@ -8824,19 +8826,19 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>99</v>
+        <v>477</v>
       </c>
       <c r="DG23" t="n">
-        <v>152</v>
+        <v>460</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
       </c>
       <c r="DI23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2133087</v>
+        <v>2133126</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8858,47 +8860,47 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Josep Chavarría</t>
+          <t>Jozhua Vertrouwd</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1010421</v>
+        <v>1120947</v>
       </c>
       <c r="E24" t="n">
-        <v>6.7954545454545</v>
+        <v>6.2714285714286</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1912</v>
+        <v>270</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4535</v>
+        <v>0.049</v>
       </c>
       <c r="L24" t="n">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>7.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -8913,13 +8915,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -8928,271 +8930,271 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.05176577</v>
+        <v>0.01803956</v>
       </c>
       <c r="AB24" t="n">
-        <v>1519</v>
+        <v>188</v>
       </c>
       <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>136</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>91.891891891892</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>148</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>106</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
         <v>3</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AP24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
         <v>16</v>
       </c>
-      <c r="AE24" t="n">
-        <v>796</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>84.951974386339</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>937</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>421</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>375</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>185</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>39.60396039604</v>
-      </c>
-      <c r="AM24" t="n">
+      <c r="BH24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
         <v>12</v>
       </c>
-      <c r="AN24" t="n">
-        <v>17.647058823529</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>94</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>58</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV24" t="n">
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK24" t="n">
         <v>3</v>
       </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>41.379310344828</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>54.644808743169</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>57.042253521127</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>19</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>46.341463414634</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>292</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>26</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>29</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN24" t="n">
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU24" t="n">
         <v>6</v>
       </c>
-      <c r="BO24" t="n">
-        <v>29</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>22</v>
-      </c>
-      <c r="BS24" t="n">
+      <c r="CV24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>110</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>38</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="DI24" t="n">
         <v>3</v>
       </c>
-      <c r="BT24" t="n">
-        <v>141</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>7</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>10</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>11</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>42</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>24</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>25</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR24" t="n">
-        <v>16</v>
-      </c>
-      <c r="CS24" t="n">
-        <v>29</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>68</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>83</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>22</v>
-      </c>
-      <c r="CW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ24" t="n">
-        <v>101</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>23</v>
-      </c>
-      <c r="DB24" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="DC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF24" t="n">
-        <v>477</v>
-      </c>
-      <c r="DG24" t="n">
-        <v>460</v>
-      </c>
-      <c r="DH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI24" t="n">
-        <v>12</v>
-      </c>
       <c r="DJ24" t="n">
-        <v>2133126</v>
+        <v>2268039</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
@@ -9214,318 +9216,316 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Jozhua Vertrouwd</t>
+          <t>Augusto Batalla</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1120947</v>
+        <v>358910</v>
       </c>
       <c r="E25" t="n">
-        <v>6.2</v>
+        <v>6.995652173913</v>
       </c>
       <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2070</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.08280458</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1036</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>544</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>66.1800486618</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>822</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>444</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>199</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>42.250530785563</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>202</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>76.470588235294</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>70</v>
+      </c>
+      <c r="BE25" t="n">
         <v>6</v>
       </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>244</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.01653169</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>175</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="BF25" t="n">
+        <v>85.71428571428601</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>287</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>65</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>30</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>278</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
         <v>126</v>
       </c>
-      <c r="AF25" t="n">
-        <v>92.64705882352899</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>136</v>
-      </c>
-      <c r="AH25" t="n">
+      <c r="CD25" t="n">
+        <v>92</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>45</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>20</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>18</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>15</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>14</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>471</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB25" t="n">
         <v>100</v>
       </c>
-      <c r="AI25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>50</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>9</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>6</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>10</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>6</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>8</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>50</v>
-      </c>
       <c r="DC25" t="n">
         <v>0</v>
       </c>
@@ -9533,384 +9533,30 @@
         <v>0</v>
       </c>
       <c r="DE25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="DF25" t="n">
-        <v>104</v>
+        <v>516</v>
       </c>
       <c r="DG25" t="n">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="DH25" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="DI25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>2268039</v>
+        <v>2133104</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>La_Liga</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Augusto Batalla</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>358910</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.9681818181818</v>
-      </c>
-      <c r="F26" t="n">
-        <v>22</v>
-      </c>
-      <c r="G26" t="n">
-        <v>22</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1980</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.0804757</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>994</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>525</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>66.287878787879</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>792</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>429</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>96</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>193</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>42.511013215859</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>193</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>70</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>276</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>62</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>30</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>153.3</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>22</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>267</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>123</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>90</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>5</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>42</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>20</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>26</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>4</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>18</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>15</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>14</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ26" t="n">
-        <v>454</v>
-      </c>
-      <c r="DA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB26" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE26" t="n">
-        <v>14</v>
-      </c>
-      <c r="DF26" t="n">
-        <v>498</v>
-      </c>
-      <c r="DG26" t="n">
-        <v>294</v>
-      </c>
-      <c r="DH26" t="n">
-        <v>90</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>2133104</v>
-      </c>
-      <c r="DK26" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL26" t="n">
-        <v>-1.8008</v>
+      <c r="DL25" t="n">
+        <v>-1.3364</v>
       </c>
     </row>
   </sheetData>
